--- a/biology/Médecine/12_Jours/12_Jours.xlsx
+++ b/biology/Médecine/12_Jours/12_Jours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">12 Jours est un documentaire français réalisé par Raymond Depardon et sorti en 2017.
 Son titre fait allusion au délai introduit par une loi concernant l'internement psychiatrique sans consentement.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis une loi de septembre 2013, toute personne internée en hôpital psychiatrique sans son consentement doit être présentée à un juge des libertés et de la détention dans un délai de douze jours. Le juge dispose d'un rapport du psychiatre, mais il n'y a pas de présence médicale lors de l'entretien. Le documentaire montre le face à face du juge et du patient, assisté de son avocat.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : 12 Jours
 Réalisation : Raymond Depardon
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tournage
-Le film a été tourné entièrement dans le Rhône à Bron, près de Lyon, au Centre hospitalier Le Vinatier, en novembre et décembre 2016[1].
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été tourné entièrement dans le Rhône à Bron, près de Lyon, au Centre hospitalier Le Vinatier, en novembre et décembre 2016.
 </t>
         </is>
       </c>
@@ -611,10 +632,12 @@
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Golden Eye au Festival de Cannes 2017[2]
-meilleur documentaire au Festival international du film  de Chicago[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Golden Eye au Festival de Cannes 2017
+meilleur documentaire au Festival international du film  de Chicago.
 meilleur documentaire aux César du cinéma 2018.</t>
         </is>
       </c>
@@ -643,9 +666,11 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Slate, le documentaire « dramatique et émouvant » « met en évidence les limites d'un dispositif où les internés psychiatriques font face à un juge et à la parole médicale. »[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Slate, le documentaire « dramatique et émouvant » « met en évidence les limites d'un dispositif où les internés psychiatriques font face à un juge et à la parole médicale. ».
 </t>
         </is>
       </c>
